--- a/PC/Action 16/Results.xlsx
+++ b/PC/Action 16/Results.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pruebasaluuclm-my.sharepoint.com/personal/elisa_jimenez_uclm_es/Documents/Elisa/Estudio instagram/Measurements/PC/Fotov2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ALARCOS\Desktop\InstagramEnergyConsumption\PC\Action 16\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_DA79987DD13BA670A4467CDA6450DA34DF63A844" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A9B5810C-A0CE-4037-915B-1D04EDF4B57C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B99D74E-EAAF-4661-8A50-FC598C3A2616}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabla de pruebas" sheetId="1" r:id="rId1"/>
-    <sheet name="Tabla total" sheetId="2" r:id="rId2"/>
+    <sheet name="Measurements table" sheetId="1" r:id="rId1"/>
+    <sheet name="Total table" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -4033,7 +4033,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/PC/Action 16/Results.xlsx
+++ b/PC/Action 16/Results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ALARCOS\Desktop\InstagramEnergyConsumption\PC\Action 16\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pruebasaluuclm-my.sharepoint.com/personal/elisa_jimenez_uclm_es/Documents/Elisa/Estudio instagram/Measurements/PC/Action 16/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B99D74E-EAAF-4661-8A50-FC598C3A2616}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="11_DA79987DD13BA670A4467CDA6450DA34DF63A844" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AE771D29-3870-4285-954D-5465A975D1A5}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Measurements table" sheetId="1" r:id="rId1"/>
@@ -168,19 +168,19 @@
     <t>GeometricMean (w) (Time in s)</t>
   </si>
   <si>
-    <t>Mean - Consumption (w/s)</t>
-  </si>
-  <si>
-    <t>Median - Consumption (w/s)</t>
-  </si>
-  <si>
-    <t>Min Measurement Consumption(w/s) (Time in s)</t>
-  </si>
-  <si>
-    <t>Max Measurement Consumption(w/s) (Time in s)</t>
-  </si>
-  <si>
-    <t>SD Measurement Consumption(w/s) (Time in s)</t>
+    <t>Mean - Consumption (w*s)</t>
+  </si>
+  <si>
+    <t>Median - Consumption (w*s)</t>
+  </si>
+  <si>
+    <t>Min Measurement Consumption(w*s) (Time in s)</t>
+  </si>
+  <si>
+    <t>Max Measurement Consumption(w*s) (Time in s)</t>
+  </si>
+  <si>
+    <t>SD Measurement Consumption(w*s) (Time in s)</t>
   </si>
 </sst>
 </file>
@@ -251,6 +251,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4033,7 +4037,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
